--- a/drawables/command/1.logo.xlsx
+++ b/drawables/command/1.logo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>命名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,16 @@
   <si>
     <t>同名文件命名时可以添加像素标记，
 例如：icon_launcher48.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3a8eed</t>
+  </si>
+  <si>
+    <t>ffffff</t>
+  </si>
+  <si>
+    <t>3a8eed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,9 +188,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -196,6 +203,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,17 +490,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.4140625" customWidth="1"/>
-    <col min="8" max="8" width="32.9140625" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,18 +508,18 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -520,72 +528,92 @@
       <c r="C2" s="1">
         <v>48</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>72</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>96</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>144</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>192</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -594,79 +622,99 @@
       <c r="C7" s="1">
         <v>48</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>72</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>144</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1">
         <v>192</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
